--- a/MIPSCel.xlsx
+++ b/MIPSCel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cooperterrill/Desktop/MIPCel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0DD040-1FDF-914E-8B15-61C8B4680538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF5D03C-30EF-3F4F-8210-14F2210A689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="780" windowWidth="34200" windowHeight="19300" xr2:uid="{95E4A03E-3FED-BF42-ACD2-5D2E65B33E92}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="17100" windowHeight="19300" xr2:uid="{95E4A03E-3FED-BF42-ACD2-5D2E65B33E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,11 @@
   <definedNames>
     <definedName name="CLK">Sheet1!$A$1</definedName>
     <definedName name="CLR">Sheet1!$B$1</definedName>
+    <definedName name="IFMT">Sheet1!$E$37</definedName>
     <definedName name="INSTR">Sheet1!$A$36</definedName>
+    <definedName name="JFMT">Sheet1!$G$37</definedName>
     <definedName name="OP">Sheet1!$B$36</definedName>
+    <definedName name="RFMT">Sheet1!$C$37</definedName>
   </definedNames>
   <calcPr calcId="181029" calcMode="manual" refMode="R1C1" iterate="1" iterateDelta="1E+16" calcCompleted="0" calcOnSave="0" forceFullCalc="1"/>
   <extLst>
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Adder</t>
   </si>
@@ -207,10 +210,19 @@
     <t>Rt</t>
   </si>
   <si>
+    <t>Rd</t>
+  </si>
+  <si>
     <t>Shamt</t>
   </si>
   <si>
     <t>Funct</t>
+  </si>
+  <si>
+    <t>Imd</t>
+  </si>
+  <si>
+    <t>Addr</t>
   </si>
 </sst>
 </file>
@@ -593,12 +605,13 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -785,49 +798,83 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <f ca="1">IF(CLR = 1, 0, $A$20 + 1)</f>
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="D20">
         <f ca="1">IF(CLK = 1, $A$20,$D$20)</f>
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="E20" t="b">
         <f ca="1">IF(MOD($A$20,7) = 0, NOT($E$20), $E$20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D31">
+        <f>IF(RFMT, _xlfn.BITAND(INSTR,127),$D$31)</f>
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31">
+        <f ca="1">IF(IFMT,_xlfn.BITAND(INSTR,65535),$F$31)</f>
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" t="b">
+        <f>IF(JFMT,_xlfn.BITAND(INSTR,134217727))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="D32">
+        <f>IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,6),31),$D$32)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="D33">
+        <f>IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,11),31),$D$33)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>46</v>
       </c>
+      <c r="D34">
+        <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,16),31),$D$34)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>45</v>
       </c>
+      <c r="D35">
+        <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,21),31),$D$35)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>732300000</v>
+        <v>32331808</v>
       </c>
       <c r="B36">
-        <f ca="1">_xlfn.BITRSHIFT($A$36,26)</f>
-        <v>10</v>
+        <f>_xlfn.BITRSHIFT($A$36,26)</f>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
@@ -847,16 +894,16 @@
         <v>41</v>
       </c>
       <c r="C37" t="b">
-        <f ca="1">(OP=0)</f>
+        <f>(OP=0)</f>
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <f>AND(NOT(RFMT),NOT(JFMT))</f>
         <v>0</v>
       </c>
-      <c r="E37" t="b">
-        <f ca="1">OR(OP=2, OP=3)</f>
+      <c r="G37" t="b">
+        <f>OR(OP=2,OP=3,OP=26)</f>
         <v>0</v>
-      </c>
-      <c r="G37" t="b">
-        <f ca="1">AND(NOT($C$37),NOT($E$37))</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/MIPSCel.xlsx
+++ b/MIPSCel.xlsx
@@ -8,23 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cooperterrill/Desktop/MIPCel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF5D03C-30EF-3F4F-8210-14F2210A689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D76FA9-2765-404B-9421-1CF720A8F1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="17100" windowHeight="19300" xr2:uid="{95E4A03E-3FED-BF42-ACD2-5D2E65B33E92}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19300" xr2:uid="{95E4A03E-3FED-BF42-ACD2-5D2E65B33E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CLK">Sheet1!$A$1</definedName>
-    <definedName name="CLR">Sheet1!$B$1</definedName>
+    <definedName name="a">Sheet1!$E$51:$H$51</definedName>
+    <definedName name="b">Sheet1!$E$52:$H$52</definedName>
+    <definedName name="c_">Sheet1!$E$53:$H$53</definedName>
+    <definedName name="CLK">Sheet1!$A$144</definedName>
+    <definedName name="CLR">Sheet1!$B$144</definedName>
+    <definedName name="d">Sheet1!$E$54:$H$54</definedName>
+    <definedName name="Format_I">Sheet1!$F$36:$J$36</definedName>
     <definedName name="IFMT">Sheet1!$E$37</definedName>
+    <definedName name="Imd">Sheet1!$F$31:$J$31</definedName>
     <definedName name="INSTR">Sheet1!$A$36</definedName>
     <definedName name="JFMT">Sheet1!$G$37</definedName>
     <definedName name="OP">Sheet1!$B$36</definedName>
+    <definedName name="OP1_">Sheet1!$F$13:$J$13</definedName>
+    <definedName name="PC">Sheet1!$J$7</definedName>
+    <definedName name="Q">Sheet1!$F$19:$J$19</definedName>
     <definedName name="RFMT">Sheet1!$C$37</definedName>
+    <definedName name="s1_">Sheet1!$F$6:$J$6</definedName>
+    <definedName name="T_flip_flop">Sheet1!$F$17:$J$17</definedName>
+    <definedName name="t3_">Sheet1!$F$4:$J$4</definedName>
+    <definedName name="t9_">Sheet1!$F$8:$J$8</definedName>
+    <definedName name="v1_">Sheet1!$F$2:$J$2</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcMode="manual" refMode="R1C1" iterate="1" iterateDelta="1E+16" calcCompleted="0" calcOnSave="0" forceFullCalc="1"/>
+  <calcPr calcId="181029" refMode="R1C1" iterate="1" iterateDelta="1E+16" calcOnSave="0" forceFullCalc="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,6 +56,24 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={1B919823-7042-AA45-8BE7-2E148AF7736E}</author>
+  </authors>
+  <commentList>
+    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{1B919823-7042-AA45-8BE7-2E148AF7736E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    =SetCellValue(ADDRESS(19,10), "hello world")</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67,17 +99,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Adder</t>
   </si>
   <si>
-    <t>Operand 2</t>
-  </si>
-  <si>
-    <t>Operand 1</t>
-  </si>
-  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -99,9 +125,6 @@
     <t>T-flip flop</t>
   </si>
   <si>
-    <t>toggle every 7</t>
-  </si>
-  <si>
     <t>v0</t>
   </si>
   <si>
@@ -223,13 +246,40 @@
   </si>
   <si>
     <t>Addr</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>OP1</t>
+  </si>
+  <si>
+    <t>OP2</t>
+  </si>
+  <si>
+    <t>128x128</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>64kb</t>
+  </si>
+  <si>
+    <t>PC ADDR</t>
+  </si>
+  <si>
+    <t>PC VAL</t>
+  </si>
+  <si>
+    <t>yo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,13 +293,25 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -264,9 +326,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -282,6 +345,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Terrill, Cooper" id="{91AC9A71-FD55-054C-B785-052ED73AB046}" userId="S::cat3500@utulsa.edu::df038d5c-6e5e-4af2-bfcf-f0778eac0eef" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -599,132 +668,142 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J19" dT="2024-05-17T19:11:31.29" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{1B919823-7042-AA45-8BE7-2E148AF7736E}">
+    <text>=SetCellValue(ADDRESS(19,10), "hello world")</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5337B1-3AE4-EB42-9D14-4ACDB1D87C75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5337B1-3AE4-EB42-9D14-4ACDB1D87C75}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A2:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <f ca="1">IF($A$1 = 1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f ca="1">CLK</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -733,18 +812,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D13" t="str">
-        <f ca="1">IF(CLK = 1, "CLOCK ON", "CLOCK OFF")</f>
-        <v>CLOCK ON</v>
-      </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -753,56 +828,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" t="str">
-        <f>ADDRESS(ROW(),COLUMN())</f>
-        <v>$I$17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="H18" t="b" cm="1">
-        <f t="array" ref="H18">IsCellAddress(ADDRESS(ROW(),COLUMN()))</f>
-        <v>1</v>
-      </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" cm="1">
-        <f t="array" ref="H19">SetCellValue(ADDRESS(19,10), "hello world")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <f ca="1">IF(CLR = 1, 0, $A$20 + 1)</f>
-        <v>460</v>
+        <v>1327</v>
       </c>
       <c r="D20">
         <f ca="1">IF(CLK = 1, $A$20,$D$20)</f>
-        <v>460</v>
+        <v>1327</v>
       </c>
       <c r="E20" t="b">
         <f ca="1">IF(MOD($A$20,7) = 0, NOT($E$20), $E$20)</f>
@@ -811,21 +869,21 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <f>IF(RFMT, _xlfn.BITAND(INSTR,127),$D$31)</f>
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F31">
         <f ca="1">IF(IFMT,_xlfn.BITAND(INSTR,65535),$F$31)</f>
         <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H31" t="b">
         <f>IF(JFMT,_xlfn.BITAND(INSTR,134217727))</f>
@@ -834,7 +892,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D32">
         <f>IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,6),31),$D$32)</f>
@@ -843,7 +901,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D33">
         <f>IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,11),31),$D$33)</f>
@@ -852,7 +910,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D34">
         <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,16),31),$D$34)</f>
@@ -861,7 +919,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D35">
         <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,21),31),$D$35)</f>
@@ -877,21 +935,21 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37" t="b">
         <f>(OP=0)</f>
@@ -906,8 +964,80 @@
         <v>0</v>
       </c>
     </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f>ADDRESS(_xlfn.BITRSHIFT(PC,6)+50,1+_xlfn.BITAND(PC,127))</f>
+        <v>$D$50</v>
+      </c>
+      <c r="B49" t="str" cm="1">
+        <f t="array" aca="1" ref="B49" ca="1">INDIRECT($A$49)</f>
+        <v>yo</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <f ca="1">IF($A$144 = 1,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MIPSCel.xlsx
+++ b/MIPSCel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cooperterrill/Desktop/MIPCel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525C6054-13D4-1F44-9F44-46C62E603AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691D5A3A-DAFA-3245-BF9C-D2E6E8AF7E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19300" xr2:uid="{95E4A03E-3FED-BF42-ACD2-5D2E65B33E92}"/>
   </bookViews>
@@ -16,29 +16,29 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="a">Sheet1!$E$51:$H$51</definedName>
-    <definedName name="b">Sheet1!$E$52:$H$52</definedName>
-    <definedName name="c_">Sheet1!$E$53:$H$53</definedName>
     <definedName name="CLK">Sheet1!$A$200</definedName>
     <definedName name="CLR">Sheet1!$B$200</definedName>
-    <definedName name="d">Sheet1!$E$54:$H$54</definedName>
-    <definedName name="Format_I">Sheet1!$F$36:$J$36</definedName>
+    <definedName name="FNCT">Sheet1!$D$31</definedName>
     <definedName name="IFMT">Sheet1!$E$37</definedName>
-    <definedName name="Imd">Sheet1!$F$31:$J$31</definedName>
+    <definedName name="IMMD">Sheet1!$F$31</definedName>
     <definedName name="INSTR">Sheet1!$A$36</definedName>
+    <definedName name="JADDR">Sheet1!$H$31</definedName>
     <definedName name="JFMT">Sheet1!$G$37</definedName>
     <definedName name="OP">Sheet1!$B$36</definedName>
-    <definedName name="OP1_">Sheet1!$F$13:$J$13</definedName>
-    <definedName name="PC">Sheet1!$J$7</definedName>
-    <definedName name="Q">Sheet1!$F$19:$J$19</definedName>
+    <definedName name="PC">Sheet1!$G$7</definedName>
+    <definedName name="RD">Sheet1!$D$33</definedName>
+    <definedName name="RDADDR">Sheet1!$D$26</definedName>
     <definedName name="RFMT">Sheet1!$C$37</definedName>
-    <definedName name="s1_">Sheet1!$F$6:$J$6</definedName>
-    <definedName name="T_flip_flop">Sheet1!$F$17:$J$17</definedName>
-    <definedName name="t3_">Sheet1!$F$4:$J$4</definedName>
-    <definedName name="t9_">Sheet1!$F$8:$J$8</definedName>
-    <definedName name="v1_">Sheet1!$F$2:$J$2</definedName>
+    <definedName name="RS">Sheet1!$D$35</definedName>
+    <definedName name="RSADDR">Sheet1!$D$28</definedName>
+    <definedName name="RSVAL">Sheet1!$D$23</definedName>
+    <definedName name="RT">Sheet1!$D$34</definedName>
+    <definedName name="RTADDR">Sheet1!$D$27</definedName>
+    <definedName name="RTVAL">Sheet1!$D$22</definedName>
+    <definedName name="SHMT">Sheet1!$D$32</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1" iterate="1" iterateDelta="1E+16" calcOnSave="0" forceFullCalc="1"/>
+  <calcPr calcId="191029" calcMode="manual" refMode="R1C1" iterate="1" iterateDelta="1E+16" calcCompleted="0" calcOnSave="0" forceFullCalc="1"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,19 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
-  <si>
-    <t>Adder</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>D-flip flop</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>SOURCE</t>
   </si>
@@ -120,9 +108,6 @@
   </si>
   <si>
     <t>CLR</t>
-  </si>
-  <si>
-    <t>T-flip flop</t>
   </si>
   <si>
     <t>v0</t>
@@ -227,34 +212,7 @@
     <t>Format=J</t>
   </si>
   <si>
-    <t>Rs</t>
-  </si>
-  <si>
-    <t>Rt</t>
-  </si>
-  <si>
-    <t>Rd</t>
-  </si>
-  <si>
-    <t>Shamt</t>
-  </si>
-  <si>
-    <t>Funct</t>
-  </si>
-  <si>
-    <t>Imd</t>
-  </si>
-  <si>
-    <t>Addr</t>
-  </si>
-  <si>
     <t>pc</t>
-  </si>
-  <si>
-    <t>OP1</t>
-  </si>
-  <si>
-    <t>OP2</t>
   </si>
   <si>
     <t>128x128</t>
@@ -295,12 +253,66 @@
   <si>
     <t>SUC?</t>
   </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>RSADDR</t>
+  </si>
+  <si>
+    <t>RTADDR</t>
+  </si>
+  <si>
+    <t>JADDR</t>
+  </si>
+  <si>
+    <t>IMMD</t>
+  </si>
+  <si>
+    <t>FNCT</t>
+  </si>
+  <si>
+    <t>SHMT</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RDADDR</t>
+  </si>
+  <si>
+    <t>ALU</t>
+  </si>
+  <si>
+    <t>done:</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>case:</t>
+  </si>
+  <si>
+    <t>0/32</t>
+  </si>
+  <si>
+    <t>RTVAL</t>
+  </si>
+  <si>
+    <t>RSVAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -312,12 +324,6 @@
       <sz val="13"/>
       <color rgb="FF0C0D0E"/>
       <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -717,159 +723,155 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:DX201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="132" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="132" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
+      <c r="N2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3">
         <f ca="1">CLK</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
       <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
       <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <f ca="1">RTVAL+RSVAL</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F14">
-        <f>E14+G14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -877,88 +879,119 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <f ca="1">IF(CLR = 1, 0, $A$20 + 1)</f>
-        <v>1364</v>
+        <v>1410</v>
       </c>
-      <c r="D20">
-        <f ca="1">IF(CLK = 1, $A$20,$D$20)</f>
-        <v>1363</v>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>67</v>
       </c>
-      <c r="E20" t="b">
-        <f ca="1">IF(MOD($A$20,7) = 0, NOT($E$20), $E$20)</f>
+      <c r="D22" cm="1">
+        <f t="array" aca="1" ref="D22" ca="1">INDIRECT(RTADDR)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" cm="1">
+        <f t="array" aca="1" ref="D23" ca="1">INDIRECT(RSADDR)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="str">
+        <f ca="1">IF(RFMT,ADDRESS(_xlfn.BITRSHIFT(RD,3)*2 + 1, 1+_xlfn.BITAND(RD,7)),RDADDR)</f>
+        <v>$D$3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="str">
+        <f ca="1">IF(RFMT,ADDRESS(_xlfn.BITRSHIFT(RT,3)*2 + 1, 1+_xlfn.BITAND(RT,7)),RTADDR)</f>
+        <v>$F$3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="str">
+        <f ca="1">IF(RFMT,ADDRESS(_xlfn.BITRSHIFT(RS,3)*2 + 1, 1+_xlfn.BITAND(RS,7)),RSADDR)</f>
+        <v>$H$3</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D31">
-        <f>IF(RFMT, _xlfn.BITAND(INSTR,127),$D$31)</f>
+        <f ca="1">IF(RFMT, _xlfn.BITAND(INSTR,127),$D$31)</f>
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F31">
-        <f ca="1">IF(IFMT,_xlfn.BITAND(INSTR,65535),$F$31)</f>
-        <v>15</v>
+        <f ca="1">IF(IFMT,_xlfn.BITAND(INSTR,65535),IMMD)</f>
+        <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
-      <c r="H31" t="b">
-        <f>IF(JFMT,_xlfn.BITAND(INSTR,134217727))</f>
+      <c r="H31">
+        <f ca="1">IF(JFMT,_xlfn.BITAND(INSTR,134217727),JADDR)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D32">
-        <f>IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,6),31),$D$32)</f>
+        <f ca="1">IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,6),31),$D$32)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D33">
-        <f>IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,11),31),$D$33)</f>
+        <f ca="1">IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,11),31),$D$33)</f>
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D34">
-        <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,16),31),$D$34)</f>
+        <f ca="1">IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,16),31),$D$34)</f>
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D35">
-        <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,21),31),$D$35)</f>
+        <f ca="1">IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,21),31),$D$35)</f>
         <v>15</v>
       </c>
     </row>
@@ -971,88 +1004,88 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C37" t="b">
-        <f>(OP=0)</f>
+        <f ca="1">(OP=0)</f>
         <v>1</v>
       </c>
       <c r="E37" t="b">
-        <f>AND(NOT(RFMT),NOT(JFMT))</f>
+        <f ca="1">AND(NOT(RFMT),NOT(JFMT))</f>
         <v>0</v>
       </c>
       <c r="G37" t="b">
-        <f>OR(OP=2,OP=3,OP=26)</f>
+        <f ca="1">OR(OP=2,OP=3,OP=26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="M43" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L45" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M45" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="N45" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="O45" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G46">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H46" t="str">
         <f>ADDRESS(_xlfn.BITRSHIFT($G$46,6)+50,1+_xlfn.BITAND($G$46,127))</f>
-        <v>$O$50</v>
+        <v>$E$50</v>
       </c>
-      <c r="I46" cm="1">
+      <c r="I46" t="str" cm="1">
         <f t="array" aca="1" ref="I46" ca="1">INDIRECT($H$46)</f>
-        <v>0</v>
+        <v>pen</v>
       </c>
       <c r="L46">
         <v>12</v>
@@ -1064,22 +1097,22 @@
       <c r="N46">
         <v>34</v>
       </c>
-      <c r="O46" cm="1">
+      <c r="O46" t="e" cm="1">
         <f t="array" aca="1" ref="O46" ca="1">SetCellValue(CELL("contents",$M$46),$N$46)</f>
-        <v>1</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f>ADDRESS(_xlfn.BITRSHIFT(PC,6)+50,1+_xlfn.BITAND(PC,127))</f>
+        <f ca="1">ADDRESS(_xlfn.BITRSHIFT(PC,6)+50,1+_xlfn.BITAND(PC,127))</f>
         <v>$D$50</v>
       </c>
       <c r="B49" t="str" cm="1">
@@ -1092,9 +1125,11 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -1224,7 +1259,7 @@
     <row r="51" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -17874,10 +17909,10 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/MIPSCel.xlsx
+++ b/MIPSCel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cooperterrill/Desktop/MIPCel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691D5A3A-DAFA-3245-BF9C-D2E6E8AF7E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB57B34-1BA9-6D49-B4C9-383EDB900E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19300" xr2:uid="{95E4A03E-3FED-BF42-ACD2-5D2E65B33E92}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="17100" windowHeight="19300" xr2:uid="{95E4A03E-3FED-BF42-ACD2-5D2E65B33E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,9 @@
     <definedName name="IFMT">Sheet1!$E$37</definedName>
     <definedName name="IMMD">Sheet1!$F$31</definedName>
     <definedName name="INSTR">Sheet1!$A$36</definedName>
-    <definedName name="JADDR">Sheet1!$H$31</definedName>
+    <definedName name="JBITS">Sheet1!$H$31</definedName>
     <definedName name="JFMT">Sheet1!$G$37</definedName>
+    <definedName name="LWBASE">Sheet1!$F$26</definedName>
     <definedName name="OP">Sheet1!$B$36</definedName>
     <definedName name="PC">Sheet1!$G$7</definedName>
     <definedName name="RD">Sheet1!$D$33</definedName>
@@ -61,15 +62,86 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Cooper Terrill</author>
     <author>tc={1B919823-7042-AA45-8BE7-2E148AF7736E}</author>
+    <author>tc={CDCDC5D9-ED0E-2148-BF8A-9DA016F77D57}</author>
+    <author>tc={76E4CB42-0AD5-5B4D-A6A1-B3EAB175ADCF}</author>
+    <author>tc={0A142261-3ADA-D24A-85B9-D6D70B5D60C5}</author>
+    <author>tc={669385F9-156F-9D40-9551-F4A1471536C0}</author>
   </authors>
   <commentList>
-    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{1B919823-7042-AA45-8BE7-2E148AF7736E}">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{F036402F-35ED-D24A-B813-5D0674A98E39}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cooper Terrill:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">NOT THE SAME AS MIPS - DOES NOT LOAD INTO 2 REGISTERS
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="1" shapeId="0" xr:uid="{1B919823-7042-AA45-8BE7-2E148AF7736E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     =SetCellValue(ADDRESS(19,10), "hello world")</t>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="2" shapeId="0" xr:uid="{CDCDC5D9-ED0E-2148-BF8A-9DA016F77D57}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    TODO: MAKE THIS INTERPRET AS A SIGNED NUMBER FOR BACKWARDS BRANCHING</t>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="3" shapeId="0" xr:uid="{76E4CB42-0AD5-5B4D-A6A1-B3EAB175ADCF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Should the offset be indexed like this?</t>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="4" shapeId="0" xr:uid="{0A142261-3ADA-D24A-85B9-D6D70B5D60C5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Same</t>
+      </text>
+    </comment>
+    <comment ref="C28" authorId="5" shapeId="0" xr:uid="{669385F9-156F-9D40-9551-F4A1471536C0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Maybe can make calculation conditional</t>
       </text>
     </comment>
   </commentList>
@@ -99,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
   <si>
     <t>SOURCE</t>
   </si>
@@ -263,9 +335,6 @@
     <t>RTADDR</t>
   </si>
   <si>
-    <t>JADDR</t>
-  </si>
-  <si>
     <t>IMMD</t>
   </si>
   <si>
@@ -307,12 +376,90 @@
   <si>
     <t>RSVAL</t>
   </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>0/34</t>
+  </si>
+  <si>
+    <t>mult</t>
+  </si>
+  <si>
+    <t>0/24</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>0/26</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>0/36</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>0/37</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>0/38</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t>0/0</t>
+  </si>
+  <si>
+    <t>0/2</t>
+  </si>
+  <si>
+    <t>addi</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>JBITS</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>LWBASE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,6 +471,19 @@
       <sz val="13"/>
       <color rgb="FF0C0D0E"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -712,8 +872,20 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J19" dT="2024-05-17T19:11:31.29" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{1B919823-7042-AA45-8BE7-2E148AF7736E}">
+  <threadedComment ref="N19" dT="2024-05-17T19:11:31.29" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{1B919823-7042-AA45-8BE7-2E148AF7736E}">
     <text>=SetCellValue(ADDRESS(19,10), "hello world")</text>
+  </threadedComment>
+  <threadedComment ref="G20" dT="2024-05-18T05:32:13.02" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{CDCDC5D9-ED0E-2148-BF8A-9DA016F77D57}">
+    <text>TODO: MAKE THIS INTERPRET AS A SIGNED NUMBER FOR BACKWARDS BRANCHING</text>
+  </threadedComment>
+  <threadedComment ref="G22" dT="2024-05-18T05:40:00.35" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{76E4CB42-0AD5-5B4D-A6A1-B3EAB175ADCF}">
+    <text>Should the offset be indexed like this?</text>
+  </threadedComment>
+  <threadedComment ref="C27" dT="2024-05-18T05:44:13.32" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{0A142261-3ADA-D24A-85B9-D6D70B5D60C5}">
+    <text>Same</text>
+  </threadedComment>
+  <threadedComment ref="C28" dT="2024-05-18T05:43:54.18" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{669385F9-156F-9D40-9551-F4A1471536C0}">
+    <text>Maybe can make calculation conditional</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -723,8 +895,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:DX201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="132" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="132" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -768,7 +940,7 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N3">
         <f ca="1">CLK</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -825,7 +997,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G7">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -853,115 +1025,282 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="F12" t="s">
-        <v>62</v>
+      <c r="J12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13">
         <f ca="1">RTVAL+RSVAL</f>
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13">
+        <f ca="1">_xlfn.BITLSHIFT(RTVAL,SHMT)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="I18" s="1"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14">
+        <f ca="1">RSVAL-RTVAL</f>
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14">
+        <f ca="1">_xlfn.BITRSHIFT(RTVAL,SHMT)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <f ca="1">RSVAL*RTVAL</f>
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15">
+        <f ca="1">RSVAL+IMMD</f>
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="e">
+        <f ca="1">RSVAL/RTVAL</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16">
+        <f ca="1">_xlfn.BITAND(RSVAL,IMMD)</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17">
+        <f ca="1">_xlfn.BITAND(RSVAL,RTVAL)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17">
+        <f ca="1">_xlfn.BITOR(RSVAL,IMMD)</f>
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18">
+        <f ca="1">_xlfn.BITOR(RSVAL,RTVAL)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18">
+        <f ca="1">_xlfn.BITXOR(RSVAL,IMMD)</f>
+        <v>8</v>
+      </c>
+      <c r="I18" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="J19" t="s">
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19">
+        <f ca="1">_xlfn.BITXOR(RSVAL,RTVAL)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19">
+        <f ca="1">_xlfn.BITOR(_xlfn.BITAND(PC+4,4026531840),_xlfn.BITLSHIFT(JBITS,2))</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <f ca="1">IF(CLR = 1, 0, $A$20 + 1)</f>
-        <v>1410</v>
+        <v>1429</v>
+      </c>
+      <c r="G20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20">
+        <f ca="1">IF(RSVAL=RTVAL,_xlfn.BITLSHIFT(IMMD,2)+PC+4,PC+4)</f>
+        <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21">
+        <f ca="1">IF(RSVAL&lt;&gt;RTVAL,_xlfn.BITLSHIFT(IMMD,2)+PC+4,PC+4)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDIRECT(RTADDR)</f>
         <v>0</v>
       </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22">
+        <f>LWBASE+_xlfn.BITLSHIFT(IMMD,4)</f>
+        <v>139</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">INDIRECT(RSADDR)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" t="str">
         <f ca="1">IF(RFMT,ADDRESS(_xlfn.BITRSHIFT(RD,3)*2 + 1, 1+_xlfn.BITAND(RD,7)),RDADDR)</f>
         <v>$D$3</v>
       </c>
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26">
+        <f>IF(OP=35,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,21),31),LWBASE)</f>
+        <v>11</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>53</v>
       </c>
       <c r="D27" t="str">
-        <f ca="1">IF(RFMT,ADDRESS(_xlfn.BITRSHIFT(RT,3)*2 + 1, 1+_xlfn.BITAND(RT,7)),RTADDR)</f>
-        <v>$F$3</v>
+        <f>ADDRESS(_xlfn.BITRSHIFT(RT,3)*2 + 1, 1+_xlfn.BITAND(RT,7))</f>
+        <v>$B$3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>52</v>
       </c>
       <c r="D28" t="str">
-        <f ca="1">IF(RFMT,ADDRESS(_xlfn.BITRSHIFT(RS,3)*2 + 1, 1+_xlfn.BITAND(RS,7)),RSADDR)</f>
-        <v>$H$3</v>
+        <f>ADDRESS(_xlfn.BITRSHIFT(RS,3)*2 + 1, 1+_xlfn.BITAND(RS,7))</f>
+        <v>$D$3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31">
         <f ca="1">IF(RFMT, _xlfn.BITAND(INSTR,127),$D$31)</f>
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31">
-        <f ca="1">IF(IFMT,_xlfn.BITAND(INSTR,65535),IMMD)</f>
-        <v>0</v>
+        <f>IF(IFMT,_xlfn.BITAND(INSTR,65535),IMMD)</f>
+        <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="H31">
-        <f ca="1">IF(JFMT,_xlfn.BITAND(INSTR,134217727),JADDR)</f>
+        <f ca="1">IF(JFMT,_xlfn.BITAND(INSTR,134217727),JBITS)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32">
         <f ca="1">IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,6),31),$D$32)</f>
@@ -970,7 +1309,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33">
         <f ca="1">IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,11),31),$D$33)</f>
@@ -979,29 +1318,29 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34">
-        <f ca="1">IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,16),31),$D$34)</f>
-        <v>13</v>
+        <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,16),31),$D$34)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35">
-        <f ca="1">IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,21),31),$D$35)</f>
-        <v>15</v>
+        <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,21),31),$D$35)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>32331808</v>
+        <v>2372468744</v>
       </c>
       <c r="B36">
         <f>_xlfn.BITRSHIFT($A$36,26)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
@@ -1021,15 +1360,15 @@
         <v>33</v>
       </c>
       <c r="C37" t="b">
-        <f ca="1">(OP=0)</f>
+        <f>(OP=0)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" t="b">
+        <f>AND(NOT(RFMT),NOT(JFMT))</f>
         <v>1</v>
       </c>
-      <c r="E37" t="b">
-        <f ca="1">AND(NOT(RFMT),NOT(JFMT))</f>
-        <v>0</v>
-      </c>
       <c r="G37" t="b">
-        <f ca="1">OR(OP=2,OP=3,OP=26)</f>
+        <f>OR(OP=2,OP=3,OP=26)</f>
         <v>0</v>
       </c>
     </row>
@@ -1112,12 +1451,12 @@
     </row>
     <row r="49" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f ca="1">ADDRESS(_xlfn.BITRSHIFT(PC,6)+50,1+_xlfn.BITAND(PC,127))</f>
-        <v>$D$50</v>
+        <f>ADDRESS(_xlfn.BITRSHIFT(_xlfn.BITRSHIFT(PC,2),6)+50,1+_xlfn.BITAND(_xlfn.BITRSHIFT(PC,2),127))</f>
+        <v>$C$50</v>
       </c>
-      <c r="B49" t="str" cm="1">
+      <c r="B49" cm="1">
         <f t="array" aca="1" ref="B49" ca="1">INDIRECT($A$49)</f>
-        <v>yo</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:128" x14ac:dyDescent="0.2">
@@ -17901,7 +18240,7 @@
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <f ca="1">IF($A$200 = 1,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200" s="2">
         <v>0</v>

--- a/MIPSCel.xlsx
+++ b/MIPSCel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cooperterrill/Desktop/MIPCel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB57B34-1BA9-6D49-B4C9-383EDB900E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C934F094-7F91-5347-9957-B27F44884266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="17100" windowHeight="19300" xr2:uid="{95E4A03E-3FED-BF42-ACD2-5D2E65B33E92}"/>
   </bookViews>
@@ -24,9 +24,10 @@
     <definedName name="INSTR">Sheet1!$A$36</definedName>
     <definedName name="JBITS">Sheet1!$H$31</definedName>
     <definedName name="JFMT">Sheet1!$G$37</definedName>
-    <definedName name="LWBASE">Sheet1!$F$26</definedName>
+    <definedName name="LWBASE">Sheet1!$F$27</definedName>
+    <definedName name="LWBASEADDR">Sheet1!$F$26</definedName>
     <definedName name="OP">Sheet1!$B$36</definedName>
-    <definedName name="PC">Sheet1!$G$7</definedName>
+    <definedName name="PC">Sheet1!$H$7</definedName>
     <definedName name="RD">Sheet1!$D$33</definedName>
     <definedName name="RDADDR">Sheet1!$D$26</definedName>
     <definedName name="RFMT">Sheet1!$C$37</definedName>
@@ -66,6 +67,7 @@
     <author>tc={1B919823-7042-AA45-8BE7-2E148AF7736E}</author>
     <author>tc={CDCDC5D9-ED0E-2148-BF8A-9DA016F77D57}</author>
     <author>tc={76E4CB42-0AD5-5B4D-A6A1-B3EAB175ADCF}</author>
+    <author>tc={9C796C1D-7C14-8143-A65D-F6D2F20500E3}</author>
     <author>tc={0A142261-3ADA-D24A-85B9-D6D70B5D60C5}</author>
     <author>tc={669385F9-156F-9D40-9551-F4A1471536C0}</author>
   </authors>
@@ -125,10 +127,20 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Should the offset be indexed like this?</t>
+    Should the offset be indexed like this?
+Reply:
+    Rn it’s value at register pointed to by lwbaseaddr + IMMD. So either can be not word-aligned, but sum MUST be word-aligned so I don’t shit myself</t>
       </text>
     </comment>
-    <comment ref="C27" authorId="4" shapeId="0" xr:uid="{0A142261-3ADA-D24A-85B9-D6D70B5D60C5}">
+    <comment ref="E26" authorId="4" shapeId="0" xr:uid="{9C796C1D-7C14-8143-A65D-F6D2F20500E3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Might make conditional</t>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="5" shapeId="0" xr:uid="{0A142261-3ADA-D24A-85B9-D6D70B5D60C5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -136,7 +148,7 @@
     Same</t>
       </text>
     </comment>
-    <comment ref="C28" authorId="5" shapeId="0" xr:uid="{669385F9-156F-9D40-9551-F4A1471536C0}">
+    <comment ref="C28" authorId="6" shapeId="0" xr:uid="{669385F9-156F-9D40-9551-F4A1471536C0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -171,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
   <si>
     <t>SOURCE</t>
   </si>
@@ -453,6 +465,12 @@
   </si>
   <si>
     <t>LWBASE</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>LWBASEADDR</t>
   </si>
 </sst>
 </file>
@@ -881,6 +899,12 @@
   <threadedComment ref="G22" dT="2024-05-18T05:40:00.35" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{76E4CB42-0AD5-5B4D-A6A1-B3EAB175ADCF}">
     <text>Should the offset be indexed like this?</text>
   </threadedComment>
+  <threadedComment ref="G22" dT="2024-05-18T06:01:12.30" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{8548F688-C553-7749-92C9-E7471DADE7A4}" parentId="{76E4CB42-0AD5-5B4D-A6A1-B3EAB175ADCF}">
+    <text>Rn it’s value at register pointed to by lwbaseaddr + IMMD. So either can be not word-aligned, but sum MUST be word-aligned so I don’t shit myself</text>
+  </threadedComment>
+  <threadedComment ref="E26" dT="2024-05-18T05:58:40.63" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{9C796C1D-7C14-8143-A65D-F6D2F20500E3}">
+    <text>Might make conditional</text>
+  </threadedComment>
   <threadedComment ref="C27" dT="2024-05-18T05:44:13.32" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{0A142261-3ADA-D24A-85B9-D6D70B5D60C5}">
     <text>Same</text>
   </threadedComment>
@@ -893,10 +917,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5337B1-3AE4-EB42-9D14-4ACDB1D87C75}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:DX201"/>
+  <dimension ref="A1:DX201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="132" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="132" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -908,30 +932,35 @@
     <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
       </c>
       <c r="N2" t="s">
         <v>1</v>
@@ -940,86 +969,89 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="N3">
         <f ca="1">CLK</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G7">
+      <c r="H7">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1197,7 +1229,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <f ca="1">IF(CLR = 1, 0, $A$20 + 1)</f>
-        <v>1429</v>
+        <v>1438</v>
       </c>
       <c r="G20" t="s">
         <v>90</v>
@@ -1205,6 +1237,9 @@
       <c r="H20">
         <f ca="1">IF(RSVAL=RTVAL,_xlfn.BITLSHIFT(IMMD,2)+PC+4,PC+4)</f>
         <v>44</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1214,6 +1249,9 @@
       <c r="H21">
         <f ca="1">IF(RSVAL&lt;&gt;RTVAL,_xlfn.BITLSHIFT(IMMD,2)+PC+4,PC+4)</f>
         <v>12</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1227,9 +1265,12 @@
       <c r="G22" t="s">
         <v>92</v>
       </c>
-      <c r="H22">
-        <f>LWBASE+_xlfn.BITLSHIFT(IMMD,4)</f>
-        <v>139</v>
+      <c r="H22" cm="1">
+        <f t="array" aca="1" ref="H22" ca="1">INDIRECT(LWBASEADDR)+IMMD</f>
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1246,15 +1287,15 @@
         <v>60</v>
       </c>
       <c r="D26" t="str">
-        <f ca="1">IF(RFMT,ADDRESS(_xlfn.BITRSHIFT(RD,3)*2 + 1, 1+_xlfn.BITAND(RD,7)),RDADDR)</f>
-        <v>$D$3</v>
+        <f>IF(RFMT,ADDRESS(_xlfn.BITRSHIFT(RD,3)*2 + 1, 1+_xlfn.BITAND(RD,7)),RDADDR)</f>
+        <v>$C$1</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
-      <c r="F26">
-        <f>IF(OP=35,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,21),31),LWBASE)</f>
-        <v>11</v>
+      <c r="F26" t="str">
+        <f ca="1">ADDRESS(_xlfn.BITRSHIFT(LWBASE,3)*2 + 1, 1+_xlfn.BITAND(LWBASE,7))</f>
+        <v>$F$1</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -1263,7 +1304,14 @@
       </c>
       <c r="D27" t="str">
         <f>ADDRESS(_xlfn.BITRSHIFT(RT,3)*2 + 1, 1+_xlfn.BITAND(RT,7))</f>
-        <v>$B$3</v>
+        <v>$D$3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27">
+        <f ca="1">IF(OP=35,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,21),31),LWBASE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -1272,7 +1320,7 @@
       </c>
       <c r="D28" t="str">
         <f>ADDRESS(_xlfn.BITRSHIFT(RS,3)*2 + 1, 1+_xlfn.BITAND(RS,7))</f>
-        <v>$D$3</v>
+        <v>$H$1</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -1280,14 +1328,14 @@
         <v>55</v>
       </c>
       <c r="D31">
-        <f ca="1">IF(RFMT, _xlfn.BITAND(INSTR,127),$D$31)</f>
+        <f>IF(RFMT, _xlfn.BITAND(INSTR,127),$D$31)</f>
         <v>32</v>
       </c>
       <c r="E31" t="s">
         <v>54</v>
       </c>
       <c r="F31">
-        <f>IF(IFMT,_xlfn.BITAND(INSTR,65535),IMMD)</f>
+        <f ca="1">IF(IFMT,_xlfn.BITAND(INSTR,65535),IMMD)</f>
         <v>8</v>
       </c>
       <c r="G31" t="s">
@@ -1303,7 +1351,7 @@
         <v>56</v>
       </c>
       <c r="D32">
-        <f ca="1">IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,6),31),$D$32)</f>
+        <f>IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,6),31),$D$32)</f>
         <v>0</v>
       </c>
     </row>
@@ -1312,8 +1360,8 @@
         <v>57</v>
       </c>
       <c r="D33">
-        <f ca="1">IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,11),31),$D$33)</f>
-        <v>11</v>
+        <f>IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,11),31),$D$33)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -1322,7 +1370,7 @@
       </c>
       <c r="D34">
         <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,16),31),$D$34)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -1331,16 +1379,16 @@
       </c>
       <c r="D35">
         <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,21),31),$D$35)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2372468744</v>
+        <v>15405088</v>
       </c>
       <c r="B36">
         <f>_xlfn.BITRSHIFT($A$36,26)</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
@@ -1361,11 +1409,11 @@
       </c>
       <c r="C37" t="b">
         <f>(OP=0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="b">
         <f>AND(NOT(RFMT),NOT(JFMT))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="b">
         <f>OR(OP=2,OP=3,OP=26)</f>
@@ -18240,7 +18288,7 @@
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <f ca="1">IF($A$200 = 1,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B200" s="2">
         <v>0</v>

--- a/MIPSCel.xlsx
+++ b/MIPSCel.xlsx
@@ -8,28 +8,70 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cooperterrill/Desktop/MIPCel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C934F094-7F91-5347-9957-B27F44884266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D2AA5B-A7DB-EF4E-8DF0-A3CB151DC90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="17100" windowHeight="19300" xr2:uid="{95E4A03E-3FED-BF42-ACD2-5D2E65B33E92}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19300" xr2:uid="{95E4A03E-3FED-BF42-ACD2-5D2E65B33E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_a0">Sheet1!$D$1</definedName>
+    <definedName name="_a1">Sheet1!$E$1</definedName>
+    <definedName name="_a2">Sheet1!$F$1</definedName>
+    <definedName name="_a3">Sheet1!$G$1</definedName>
+    <definedName name="_fp">Sheet1!$F$7</definedName>
+    <definedName name="_gp">Sheet1!$D$7</definedName>
+    <definedName name="_pc">Sheet1!$H$7</definedName>
+    <definedName name="_ra">Sheet1!$G$7</definedName>
+    <definedName name="_s0">Sheet1!$B$5</definedName>
+    <definedName name="_s1">Sheet1!$C$5</definedName>
+    <definedName name="_s2">Sheet1!$D$5</definedName>
+    <definedName name="_s3">Sheet1!$E$5</definedName>
+    <definedName name="_s4">Sheet1!$F$5</definedName>
+    <definedName name="_s5">Sheet1!$G$5</definedName>
+    <definedName name="_s6">Sheet1!$H$5</definedName>
+    <definedName name="_s7">Sheet1!$A$7</definedName>
+    <definedName name="_sp">Sheet1!$E$7</definedName>
+    <definedName name="_t0">Sheet1!$H$1</definedName>
+    <definedName name="_t1">Sheet1!$A$3</definedName>
+    <definedName name="_t2">Sheet1!$B$3</definedName>
+    <definedName name="_t3">Sheet1!$C$3</definedName>
+    <definedName name="_t4">Sheet1!$D$3</definedName>
+    <definedName name="_t5">Sheet1!$E$3</definedName>
+    <definedName name="_t6">Sheet1!$F$3</definedName>
+    <definedName name="_t7">Sheet1!$G$3</definedName>
+    <definedName name="_t8">Sheet1!$B$7</definedName>
+    <definedName name="_t9">Sheet1!$C$7</definedName>
+    <definedName name="_v0">Sheet1!$B$1</definedName>
+    <definedName name="_v1">Sheet1!$C$1</definedName>
+    <definedName name="_zero">Sheet1!$A$1</definedName>
+    <definedName name="ADD">Sheet1!$D$18</definedName>
+    <definedName name="ADDI">Sheet1!$M$18</definedName>
+    <definedName name="AND">Sheet1!$H$18</definedName>
+    <definedName name="ANDI">Sheet1!$N$18</definedName>
+    <definedName name="BEQ">Sheet1!$R$18</definedName>
+    <definedName name="BNE">Sheet1!$S$18</definedName>
     <definedName name="CLK">Sheet1!$A$200</definedName>
     <definedName name="CLR">Sheet1!$B$200</definedName>
+    <definedName name="DIV">Sheet1!$G$18</definedName>
     <definedName name="FNCT">Sheet1!$D$31</definedName>
     <definedName name="IFMT">Sheet1!$E$37</definedName>
     <definedName name="IMMD">Sheet1!$F$31</definedName>
     <definedName name="INSTR">Sheet1!$A$36</definedName>
+    <definedName name="J">Sheet1!$Q$18</definedName>
     <definedName name="JBITS">Sheet1!$H$31</definedName>
     <definedName name="JFMT">Sheet1!$G$37</definedName>
+    <definedName name="LW">Sheet1!$T$18</definedName>
     <definedName name="LWBASE">Sheet1!$F$27</definedName>
     <definedName name="LWBASEADDR">Sheet1!$F$26</definedName>
+    <definedName name="MULT">Sheet1!$F$18</definedName>
     <definedName name="OP">Sheet1!$B$36</definedName>
-    <definedName name="PC">Sheet1!$H$7</definedName>
+    <definedName name="OR">Sheet1!$I$18</definedName>
+    <definedName name="ORI">Sheet1!$O$18</definedName>
     <definedName name="RD">Sheet1!$D$33</definedName>
     <definedName name="RDADDR">Sheet1!$D$26</definedName>
+    <definedName name="REGWRITE">Sheet1!$G$22</definedName>
     <definedName name="RFMT">Sheet1!$C$37</definedName>
     <definedName name="RS">Sheet1!$D$35</definedName>
     <definedName name="RSADDR">Sheet1!$D$28</definedName>
@@ -38,6 +80,12 @@
     <definedName name="RTADDR">Sheet1!$D$27</definedName>
     <definedName name="RTVAL">Sheet1!$D$22</definedName>
     <definedName name="SHMT">Sheet1!$D$32</definedName>
+    <definedName name="SLL">Sheet1!$K$18</definedName>
+    <definedName name="SRL">Sheet1!$L$18</definedName>
+    <definedName name="SUB">Sheet1!$E$18</definedName>
+    <definedName name="SW">Sheet1!$U$18</definedName>
+    <definedName name="XOR">Sheet1!$J$18</definedName>
+    <definedName name="XORI">Sheet1!$P$18</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual" refMode="R1C1" iterate="1" iterateDelta="1E+16" calcCompleted="0" calcOnSave="0" forceFullCalc="1"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -64,15 +112,14 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Cooper Terrill</author>
-    <author>tc={1B919823-7042-AA45-8BE7-2E148AF7736E}</author>
-    <author>tc={CDCDC5D9-ED0E-2148-BF8A-9DA016F77D57}</author>
-    <author>tc={76E4CB42-0AD5-5B4D-A6A1-B3EAB175ADCF}</author>
+    <author>tc={3AC548F8-62BB-514F-982E-A106C682B9D2}</author>
+    <author>tc={A1FA4168-C4C8-4B4D-AF91-307A997A7851}</author>
     <author>tc={9C796C1D-7C14-8143-A65D-F6D2F20500E3}</author>
     <author>tc={0A142261-3ADA-D24A-85B9-D6D70B5D60C5}</author>
     <author>tc={669385F9-156F-9D40-9551-F4A1471536C0}</author>
   </authors>
   <commentList>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{F036402F-35ED-D24A-B813-5D0674A98E39}">
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{63B6A2AF-2D52-6542-88CA-BE668670278D}">
       <text>
         <r>
           <rPr>
@@ -106,15 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N19" authorId="1" shapeId="0" xr:uid="{1B919823-7042-AA45-8BE7-2E148AF7736E}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    =SetCellValue(ADDRESS(19,10), "hello world")</t>
-      </text>
-    </comment>
-    <comment ref="G20" authorId="2" shapeId="0" xr:uid="{CDCDC5D9-ED0E-2148-BF8A-9DA016F77D57}">
+    <comment ref="R17" authorId="1" shapeId="0" xr:uid="{3AC548F8-62BB-514F-982E-A106C682B9D2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -122,7 +161,7 @@
     TODO: MAKE THIS INTERPRET AS A SIGNED NUMBER FOR BACKWARDS BRANCHING</t>
       </text>
     </comment>
-    <comment ref="G22" authorId="3" shapeId="0" xr:uid="{76E4CB42-0AD5-5B4D-A6A1-B3EAB175ADCF}">
+    <comment ref="T17" authorId="2" shapeId="0" xr:uid="{A1FA4168-C4C8-4B4D-AF91-307A997A7851}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -132,7 +171,7 @@
     Rn it’s value at register pointed to by lwbaseaddr + IMMD. So either can be not word-aligned, but sum MUST be word-aligned so I don’t shit myself</t>
       </text>
     </comment>
-    <comment ref="E26" authorId="4" shapeId="0" xr:uid="{9C796C1D-7C14-8143-A65D-F6D2F20500E3}">
+    <comment ref="E26" authorId="3" shapeId="0" xr:uid="{9C796C1D-7C14-8143-A65D-F6D2F20500E3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -140,7 +179,7 @@
     Might make conditional</t>
       </text>
     </comment>
-    <comment ref="C27" authorId="5" shapeId="0" xr:uid="{0A142261-3ADA-D24A-85B9-D6D70B5D60C5}">
+    <comment ref="C27" authorId="4" shapeId="0" xr:uid="{0A142261-3ADA-D24A-85B9-D6D70B5D60C5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -148,7 +187,7 @@
     Same</t>
       </text>
     </comment>
-    <comment ref="C28" authorId="6" shapeId="0" xr:uid="{669385F9-156F-9D40-9551-F4A1471536C0}">
+    <comment ref="C28" authorId="5" shapeId="0" xr:uid="{669385F9-156F-9D40-9551-F4A1471536C0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -183,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
   <si>
     <t>SOURCE</t>
   </si>
@@ -192,93 +231,6 @@
   </si>
   <si>
     <t>CLR</t>
-  </si>
-  <si>
-    <t>v0</t>
-  </si>
-  <si>
-    <t>v1</t>
-  </si>
-  <si>
-    <t>a0</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>t0</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>s0</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>s3</t>
-  </si>
-  <si>
-    <t>s4</t>
-  </si>
-  <si>
-    <t>s5</t>
-  </si>
-  <si>
-    <t>s6</t>
-  </si>
-  <si>
-    <t>s7</t>
-  </si>
-  <si>
-    <t>ra</t>
-  </si>
-  <si>
-    <t>gp</t>
-  </si>
-  <si>
-    <t>sp</t>
-  </si>
-  <si>
-    <t>fp</t>
-  </si>
-  <si>
-    <t>hello world</t>
   </si>
   <si>
     <t>INSTR</t>
@@ -294,9 +246,6 @@
   </si>
   <si>
     <t>Format=J</t>
-  </si>
-  <si>
-    <t>pc</t>
   </si>
   <si>
     <t>128x128</t>
@@ -371,15 +320,6 @@
     <t>ALU</t>
   </si>
   <si>
-    <t>done:</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>case:</t>
-  </si>
-  <si>
     <t>0/32</t>
   </si>
   <si>
@@ -389,46 +329,22 @@
     <t>RSVAL</t>
   </si>
   <si>
-    <t>sub</t>
-  </si>
-  <si>
     <t>0/34</t>
-  </si>
-  <si>
-    <t>mult</t>
   </si>
   <si>
     <t>0/24</t>
   </si>
   <si>
-    <t>div</t>
-  </si>
-  <si>
     <t>0/26</t>
-  </si>
-  <si>
-    <t>and</t>
   </si>
   <si>
     <t>0/36</t>
   </si>
   <si>
-    <t>or</t>
-  </si>
-  <si>
     <t>0/37</t>
   </si>
   <si>
-    <t>xor</t>
-  </si>
-  <si>
     <t>0/38</t>
-  </si>
-  <si>
-    <t>sll</t>
-  </si>
-  <si>
-    <t>srl</t>
   </si>
   <si>
     <t>0/0</t>
@@ -437,47 +353,173 @@
     <t>0/2</t>
   </si>
   <si>
-    <t>addi</t>
-  </si>
-  <si>
-    <t>andi</t>
-  </si>
-  <si>
-    <t>ori</t>
-  </si>
-  <si>
-    <t>xori</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
     <t>JBITS</t>
-  </si>
-  <si>
-    <t>beq</t>
-  </si>
-  <si>
-    <t>bne</t>
-  </si>
-  <si>
-    <t>lw</t>
   </si>
   <si>
     <t>LWBASE</t>
   </si>
   <si>
-    <t>zero</t>
+    <t>LWBASEADDR</t>
   </si>
   <si>
-    <t>LWBASEADDR</t>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>MULT</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>XOR</t>
+  </si>
+  <si>
+    <t>SLL</t>
+  </si>
+  <si>
+    <t>SRL</t>
+  </si>
+  <si>
+    <t>ADDI</t>
+  </si>
+  <si>
+    <t>ORI</t>
+  </si>
+  <si>
+    <t>ANDI</t>
+  </si>
+  <si>
+    <t>XORI</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>BEQ</t>
+  </si>
+  <si>
+    <t>BNE</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>REGWRITE</t>
+  </si>
+  <si>
+    <t>_zero</t>
+  </si>
+  <si>
+    <t>_v0</t>
+  </si>
+  <si>
+    <t>_v1</t>
+  </si>
+  <si>
+    <t>_a0</t>
+  </si>
+  <si>
+    <t>_a1</t>
+  </si>
+  <si>
+    <t>_a2</t>
+  </si>
+  <si>
+    <t>_a3</t>
+  </si>
+  <si>
+    <t>_t0</t>
+  </si>
+  <si>
+    <t>_t1</t>
+  </si>
+  <si>
+    <t>_t2</t>
+  </si>
+  <si>
+    <t>_t3</t>
+  </si>
+  <si>
+    <t>_t4</t>
+  </si>
+  <si>
+    <t>_t5</t>
+  </si>
+  <si>
+    <t>_t6</t>
+  </si>
+  <si>
+    <t>_t7</t>
+  </si>
+  <si>
+    <t>_t8</t>
+  </si>
+  <si>
+    <t>_t9</t>
+  </si>
+  <si>
+    <t>_s0</t>
+  </si>
+  <si>
+    <t>_s1</t>
+  </si>
+  <si>
+    <t>_s2</t>
+  </si>
+  <si>
+    <t>_s3</t>
+  </si>
+  <si>
+    <t>_s4</t>
+  </si>
+  <si>
+    <t>_s5</t>
+  </si>
+  <si>
+    <t>_s6</t>
+  </si>
+  <si>
+    <t>_s7</t>
+  </si>
+  <si>
+    <t>_gp</t>
+  </si>
+  <si>
+    <t>_sp</t>
+  </si>
+  <si>
+    <t>_fp</t>
+  </si>
+  <si>
+    <t>_ra</t>
+  </si>
+  <si>
+    <t>_pc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -503,6 +545,13 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -546,10 +595,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,16 +940,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="N19" dT="2024-05-17T19:11:31.29" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{1B919823-7042-AA45-8BE7-2E148AF7736E}">
-    <text>=SetCellValue(ADDRESS(19,10), "hello world")</text>
-  </threadedComment>
-  <threadedComment ref="G20" dT="2024-05-18T05:32:13.02" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{CDCDC5D9-ED0E-2148-BF8A-9DA016F77D57}">
+  <threadedComment ref="R17" dT="2024-05-18T05:32:13.02" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{3AC548F8-62BB-514F-982E-A106C682B9D2}">
     <text>TODO: MAKE THIS INTERPRET AS A SIGNED NUMBER FOR BACKWARDS BRANCHING</text>
   </threadedComment>
-  <threadedComment ref="G22" dT="2024-05-18T05:40:00.35" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{76E4CB42-0AD5-5B4D-A6A1-B3EAB175ADCF}">
+  <threadedComment ref="T17" dT="2024-05-18T05:40:00.35" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{A1FA4168-C4C8-4B4D-AF91-307A997A7851}">
     <text>Should the offset be indexed like this?</text>
   </threadedComment>
-  <threadedComment ref="G22" dT="2024-05-18T06:01:12.30" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{8548F688-C553-7749-92C9-E7471DADE7A4}" parentId="{76E4CB42-0AD5-5B4D-A6A1-B3EAB175ADCF}">
+  <threadedComment ref="T17" dT="2024-05-18T06:01:12.30" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{CEC310FB-FEE4-CF4E-A788-C2935471B00F}" parentId="{A1FA4168-C4C8-4B4D-AF91-307A997A7851}">
     <text>Rn it’s value at register pointed to by lwbaseaddr + IMMD. So either can be not word-aligned, but sum MUST be word-aligned so I don’t shit myself</text>
   </threadedComment>
   <threadedComment ref="E26" dT="2024-05-18T05:58:40.63" personId="{91AC9A71-FD55-054C-B785-052ED73AB046}" id="{9C796C1D-7C14-8143-A65D-F6D2F20500E3}">
@@ -919,436 +966,602 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:DX201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="132" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" cm="1">
+        <f t="array" aca="1" ref="A1" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_zero))</f>
         <v>0</v>
       </c>
+      <c r="B1" cm="1">
+        <f t="array" aca="1" ref="B1" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_v0))</f>
+        <v>0</v>
+      </c>
+      <c r="C1" cm="1">
+        <f t="array" aca="1" ref="C1" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_v1))</f>
+        <v>0</v>
+      </c>
+      <c r="D1" cm="1">
+        <f t="array" aca="1" ref="D1" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_a0))</f>
+        <v>0</v>
+      </c>
+      <c r="E1" cm="1">
+        <f t="array" aca="1" ref="E1" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_a1))</f>
+        <v>0</v>
+      </c>
+      <c r="F1" cm="1">
+        <f t="array" aca="1" ref="F1" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_a2))</f>
+        <v>0</v>
+      </c>
+      <c r="G1" cm="1">
+        <f t="array" aca="1" ref="G1" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_a3))</f>
+        <v>0</v>
+      </c>
+      <c r="H1" cm="1">
+        <f t="array" aca="1" ref="H1" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t0))</f>
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="T2">
+        <f ca="1">CLK</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" cm="1">
+        <f t="array" aca="1" ref="A3" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t1))</f>
+        <v>0</v>
+      </c>
+      <c r="B3" cm="1">
+        <f t="array" aca="1" ref="B3" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t2))</f>
+        <v>0</v>
+      </c>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t3))</f>
+        <v>0</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t4))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t5))</f>
+        <v>0</v>
+      </c>
+      <c r="F3" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t6))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" cm="1">
+        <f t="array" aca="1" ref="G3" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t7))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" cm="1">
+        <f t="array" aca="1" ref="H3" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="e" cm="1">
+        <f t="array" aca="1" ref="A5" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t9))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B5" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_s0))</f>
+        <v>0</v>
+      </c>
+      <c r="C5" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_s1))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_s2))</f>
+        <v>0</v>
+      </c>
+      <c r="E5" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_s3))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" aca="1" ref="F5" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_s4))</f>
+        <v>0</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" aca="1" ref="G5" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_s5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" cm="1">
+        <f t="array" aca="1" ref="H5" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_s6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" cm="1">
+        <f t="array" aca="1" ref="A7" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_s7))</f>
+        <v>0</v>
+      </c>
+      <c r="B7" cm="1">
+        <f t="array" aca="1" ref="B7" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t8))</f>
+        <v>0</v>
+      </c>
+      <c r="C7" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t9))</f>
+        <v>0</v>
+      </c>
+      <c r="D7" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_gp))</f>
+        <v>0</v>
+      </c>
+      <c r="E7" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_sp))</f>
+        <v>0</v>
+      </c>
+      <c r="F7" cm="1">
+        <f t="array" aca="1" ref="F7" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_fp))</f>
+        <v>0</v>
+      </c>
+      <c r="G7" cm="1">
+        <f t="array" aca="1" ref="G7" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_ra))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" cm="1">
+        <f t="array" aca="1" ref="H7" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_pc))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1</v>
-      </c>
+      <c r="G8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="N3">
-        <f ca="1">CLK</f>
-        <v>0</v>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="e" cm="1">
+        <f t="array" aca="1" ref="E15" ca="1">_xlfn.SWITCH(OP,8,ADI,12,ANDI,13,ORI,14,XORI,2,J,4,BEQ,5,BNE,34,LW,42,SW, 0, _xlfn.SWITCH(FNCT,32,ADD,34,SUB,24,MULT,26,DIV,36,AND,37,OR,38,XOR,0,SLL,2,SRL))</f>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N17" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>59</v>
+      </c>
+      <c r="R17" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" t="s">
+        <v>61</v>
+      </c>
+      <c r="T17" t="s">
+        <v>62</v>
+      </c>
+      <c r="U17" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D18" t="e">
+        <f ca="1">RTVAL+RSVAL</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E18" t="e">
+        <f ca="1">RSVAL-RTVAL</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F18" t="e">
+        <f ca="1">RSVAL*RTVAL</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G18" t="e">
+        <f ca="1">RSVAL/RTVAL</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H18" t="e">
+        <f ca="1">_xlfn.BITAND(RSVAL,RTVAL)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I18" t="e">
+        <f ca="1">_xlfn.BITOR(RSVAL,RTVAL)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J18" t="e">
+        <f ca="1">_xlfn.BITXOR(RSVAL,RTVAL)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K18" t="e">
+        <f ca="1">_xlfn.BITLSHIFT(RTVAL,SHMT)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L18" t="e">
+        <f ca="1">_xlfn.BITRSHIFT(RTVAL,SHMT)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M18" t="e">
+        <f ca="1">RSVAL+IMMD</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N18" t="e">
+        <f ca="1">_xlfn.BITAND(RSVAL,IMMD)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O18" t="e">
+        <f ca="1">_xlfn.BITOR(RSVAL,IMMD)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="P18" t="e">
+        <f ca="1">_xlfn.BITXOR(RSVAL,IMMD)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q18" t="e">
+        <f ca="1">_xlfn.BITOR(_xlfn.BITAND(pc+4,4026531840),_xlfn.BITLSHIFT(JBITS,2))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R18" t="e">
+        <f ca="1">IF(RSVAL=RTVAL,_xlfn.BITLSHIFT(IMMD,2)+pc+4,pc+4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="S18" t="e">
+        <f ca="1">IF(RSVAL&lt;&gt;RTVAL,_xlfn.BITLSHIFT(IMMD,2)+pc+4,pc+4)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="T18" t="e" cm="1">
+        <f t="array" aca="1" ref="T18" ca="1">INDIRECT(LWBASEADDR)+IMMD</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U18" t="e">
+        <f ca="1">RTVAL</f>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="H7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13">
-        <f ca="1">RTVAL+RSVAL</f>
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13">
-        <f ca="1">_xlfn.BITLSHIFT(RTVAL,SHMT)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14">
-        <f ca="1">RSVAL-RTVAL</f>
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14">
-        <f ca="1">_xlfn.BITRSHIFT(RTVAL,SHMT)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15">
-        <f ca="1">RSVAL*RTVAL</f>
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15">
-        <f ca="1">RSVAL+IMMD</f>
-        <v>8</v>
-      </c>
-      <c r="I15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" t="e">
-        <f ca="1">RSVAL/RTVAL</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16">
-        <f ca="1">_xlfn.BITAND(RSVAL,IMMD)</f>
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17">
-        <f ca="1">_xlfn.BITAND(RSVAL,RTVAL)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17">
-        <f ca="1">_xlfn.BITOR(RSVAL,IMMD)</f>
-        <v>8</v>
-      </c>
-      <c r="I17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18">
-        <f ca="1">_xlfn.BITOR(RSVAL,RTVAL)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18">
-        <f ca="1">_xlfn.BITXOR(RSVAL,IMMD)</f>
-        <v>8</v>
-      </c>
-      <c r="I18" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19">
-        <f ca="1">_xlfn.BITXOR(RSVAL,RTVAL)</f>
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19">
-        <f ca="1">_xlfn.BITOR(_xlfn.BITAND(PC+4,4026531840),_xlfn.BITLSHIFT(JBITS,2))</f>
-        <v>0</v>
-      </c>
-      <c r="I19">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19">
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <v>12</v>
+      </c>
+      <c r="O19">
+        <v>13</v>
+      </c>
+      <c r="P19" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q19">
         <v>2</v>
       </c>
-      <c r="N19" t="s">
-        <v>31</v>
+      <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>34</v>
+      </c>
+      <c r="U19">
+        <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <f ca="1">IF(CLR = 1, 0, $A$20 + 1)</f>
-        <v>1438</v>
-      </c>
-      <c r="G20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20">
-        <f ca="1">IF(RSVAL=RTVAL,_xlfn.BITLSHIFT(IMMD,2)+PC+4,PC+4)</f>
-        <v>44</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
+        <v>1525</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21">
-        <f ca="1">IF(RSVAL&lt;&gt;RTVAL,_xlfn.BITLSHIFT(IMMD,2)+PC+4,PC+4)</f>
-        <v>12</v>
-      </c>
-      <c r="I21">
-        <v>5</v>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="e" cm="1">
+        <f t="array" aca="1" ref="D22" ca="1">INDIRECT(RTADDR)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22">
+        <f>IF(RFMT, RD, IF(IFMT,IF(_xlfn.BITRSHIFT(OP,3)=0,pc,RT),pc))</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" cm="1">
-        <f t="array" aca="1" ref="D22" ca="1">INDIRECT(RTADDR)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" cm="1">
-        <f t="array" aca="1" ref="H22" ca="1">INDIRECT(LWBASEADDR)+IMMD</f>
-        <v>8</v>
-      </c>
-      <c r="I22">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>34</v>
       </c>
+      <c r="D23" t="e" cm="1">
+        <f t="array" aca="1" ref="D23" ca="1">INDIRECT(RSADDR)</f>
+        <v>#NAME?</v>
+      </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" cm="1">
-        <f t="array" aca="1" ref="D23" ca="1">INDIRECT(RSADDR)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D26" t="str">
         <f>IF(RFMT,ADDRESS(_xlfn.BITRSHIFT(RD,3)*2 + 1, 1+_xlfn.BITAND(RD,7)),RDADDR)</f>
         <v>$C$1</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="F26" t="str">
         <f ca="1">ADDRESS(_xlfn.BITRSHIFT(LWBASE,3)*2 + 1, 1+_xlfn.BITAND(LWBASE,7))</f>
         <v>$F$1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D27" t="str">
         <f>ADDRESS(_xlfn.BITRSHIFT(RT,3)*2 + 1, 1+_xlfn.BITAND(RT,7))</f>
         <v>$D$3</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="F27">
         <f ca="1">IF(OP=35,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,21),31),LWBASE)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D28" t="str">
         <f>ADDRESS(_xlfn.BITRSHIFT(RS,3)*2 + 1, 1+_xlfn.BITAND(RS,7))</f>
         <v>$H$1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D31">
         <f>IF(RFMT, _xlfn.BITAND(INSTR,127),$D$31)</f>
         <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="F31">
         <f ca="1">IF(IFMT,_xlfn.BITAND(INSTR,65535),IMMD)</f>
         <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="H31">
         <f ca="1">IF(JFMT,_xlfn.BITAND(INSTR,134217727),JBITS)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D32">
         <f>IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,6),31),$D$32)</f>
@@ -1357,7 +1570,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D33">
         <f>IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,11),31),$D$33)</f>
@@ -1366,7 +1579,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D34">
         <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,16),31),$D$34)</f>
@@ -1375,7 +1588,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D35">
         <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,21),31),$D$35)</f>
@@ -1391,21 +1604,21 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C37" t="b">
         <f>(OP=0)</f>
@@ -1422,44 +1635,44 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="M43" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="L45" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="M45" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N45" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="O45" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -1491,20 +1704,20 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:128" x14ac:dyDescent="0.2">
-      <c r="A49" t="str">
-        <f>ADDRESS(_xlfn.BITRSHIFT(_xlfn.BITRSHIFT(PC,2),6)+50,1+_xlfn.BITAND(_xlfn.BITRSHIFT(PC,2),127))</f>
-        <v>$C$50</v>
-      </c>
-      <c r="B49" cm="1">
+      <c r="A49" t="e">
+        <f>ADDRESS(_xlfn.BITRSHIFT(_xlfn.BITRSHIFT(pc,2),6)+50,1+_xlfn.BITAND(_xlfn.BITRSHIFT(pc,2),127))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B49" t="e" cm="1">
         <f t="array" aca="1" ref="B49" ca="1">INDIRECT($A$49)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="50" spans="1:128" x14ac:dyDescent="0.2">
@@ -1512,10 +1725,10 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -1646,7 +1859,7 @@
     <row r="51" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -18288,7 +18501,7 @@
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <f ca="1">IF($A$200 = 1,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200" s="2">
         <v>0</v>

--- a/MIPSCel.xlsx
+++ b/MIPSCel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cooperterrill/Desktop/MIPCel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D2AA5B-A7DB-EF4E-8DF0-A3CB151DC90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAA49F6-F1D3-F94A-A0F8-991F05C4C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19300" xr2:uid="{95E4A03E-3FED-BF42-ACD2-5D2E65B33E92}"/>
   </bookViews>
@@ -48,6 +48,7 @@
     <definedName name="_zero">Sheet1!$A$1</definedName>
     <definedName name="ADD">Sheet1!$D$18</definedName>
     <definedName name="ADDI">Sheet1!$M$18</definedName>
+    <definedName name="ALU">Sheet1!$E$15</definedName>
     <definedName name="AND">Sheet1!$H$18</definedName>
     <definedName name="ANDI">Sheet1!$N$18</definedName>
     <definedName name="BEQ">Sheet1!$R$18</definedName>
@@ -71,7 +72,8 @@
     <definedName name="ORI">Sheet1!$O$18</definedName>
     <definedName name="RD">Sheet1!$D$33</definedName>
     <definedName name="RDADDR">Sheet1!$D$26</definedName>
-    <definedName name="REGWRITE">Sheet1!$G$22</definedName>
+    <definedName name="REGWRITE">Sheet1!$G$23</definedName>
+    <definedName name="REGWRITEADDR">Sheet1!$G$22</definedName>
     <definedName name="RFMT">Sheet1!$C$37</definedName>
     <definedName name="RS">Sheet1!$D$35</definedName>
     <definedName name="RSADDR">Sheet1!$D$28</definedName>
@@ -222,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
   <si>
     <t>SOURCE</t>
   </si>
@@ -513,6 +515,9 @@
   </si>
   <si>
     <t>_pc</t>
+  </si>
+  <si>
+    <t>REGWRITEADDR</t>
   </si>
 </sst>
 </file>
@@ -967,7 +972,7 @@
   <dimension ref="A1:DX201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,35 +988,35 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" cm="1">
-        <f t="array" aca="1" ref="A1" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_zero))</f>
+        <f t="array" aca="1" ref="A1" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_zero))</f>
         <v>0</v>
       </c>
       <c r="B1" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_v0))</f>
+        <f t="array" aca="1" ref="B1" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_v0))</f>
         <v>0</v>
       </c>
       <c r="C1" cm="1">
-        <f t="array" aca="1" ref="C1" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_v1))</f>
+        <f t="array" aca="1" ref="C1" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_v1))</f>
         <v>0</v>
       </c>
       <c r="D1" cm="1">
-        <f t="array" aca="1" ref="D1" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_a0))</f>
+        <f t="array" aca="1" ref="D1" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a0))</f>
         <v>0</v>
       </c>
       <c r="E1" cm="1">
-        <f t="array" aca="1" ref="E1" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_a1))</f>
+        <f t="array" aca="1" ref="E1" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a1))</f>
         <v>0</v>
       </c>
       <c r="F1" cm="1">
-        <f t="array" aca="1" ref="F1" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_a2))</f>
+        <f t="array" aca="1" ref="F1" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a2))</f>
         <v>0</v>
       </c>
       <c r="G1" cm="1">
-        <f t="array" aca="1" ref="G1" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_a3))</f>
+        <f t="array" aca="1" ref="G1" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_a3))</f>
         <v>0</v>
       </c>
       <c r="H1" cm="1">
-        <f t="array" aca="1" ref="H1" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t0))</f>
+        <f t="array" aca="1" ref="H1" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t0))</f>
         <v>0</v>
       </c>
       <c r="T1" t="s">
@@ -1058,35 +1063,35 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" cm="1">
-        <f t="array" aca="1" ref="A3" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t1))</f>
+        <f t="array" aca="1" ref="A3" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t1))</f>
+        <v>255</v>
+      </c>
+      <c r="B3" cm="1">
+        <f t="array" aca="1" ref="B3" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t2))</f>
         <v>0</v>
       </c>
-      <c r="B3" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t2))</f>
+      <c r="C3" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t3))</f>
         <v>0</v>
       </c>
-      <c r="C3" cm="1">
-        <f t="array" aca="1" ref="C3" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t3))</f>
+      <c r="D3" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t4))</f>
         <v>0</v>
       </c>
-      <c r="D3" cm="1">
-        <f t="array" aca="1" ref="D3" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t4))</f>
+      <c r="E3" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t5))</f>
         <v>0</v>
       </c>
-      <c r="E3" cm="1">
-        <f t="array" aca="1" ref="E3" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t5))</f>
+      <c r="F3" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t6))</f>
         <v>0</v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" aca="1" ref="F3" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t6))</f>
+      <c r="G3" cm="1">
+        <f t="array" aca="1" ref="G3" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t7))</f>
         <v>0</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" aca="1" ref="G3" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t7))</f>
-        <v>0</v>
-      </c>
       <c r="H3" cm="1">
-        <f t="array" aca="1" ref="H3" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t8))</f>
+        <f t="array" aca="1" ref="H3" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t8))</f>
         <v>0</v>
       </c>
     </row>
@@ -1125,36 +1130,36 @@
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" t="e" cm="1">
-        <f t="array" aca="1" ref="A5" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t9))</f>
-        <v>#NAME?</v>
+      <c r="A5" cm="1">
+        <f t="array" aca="1" ref="A5" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t9))</f>
+        <v>0</v>
       </c>
       <c r="B5" cm="1">
-        <f t="array" aca="1" ref="B5" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_s0))</f>
+        <f t="array" aca="1" ref="B5" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s0))</f>
         <v>0</v>
       </c>
       <c r="C5" cm="1">
-        <f t="array" aca="1" ref="C5" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_s1))</f>
+        <f t="array" aca="1" ref="C5" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s1))</f>
         <v>0</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" aca="1" ref="D5" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_s2))</f>
+        <f t="array" aca="1" ref="D5" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s2))</f>
         <v>0</v>
       </c>
       <c r="E5" cm="1">
-        <f t="array" aca="1" ref="E5" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_s3))</f>
+        <f t="array" aca="1" ref="E5" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s3))</f>
         <v>0</v>
       </c>
       <c r="F5" cm="1">
-        <f t="array" aca="1" ref="F5" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_s4))</f>
+        <f t="array" aca="1" ref="F5" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s4))</f>
         <v>0</v>
       </c>
       <c r="G5" cm="1">
-        <f t="array" aca="1" ref="G5" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_s5))</f>
+        <f t="array" aca="1" ref="G5" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s5))</f>
         <v>0</v>
       </c>
       <c r="H5" cm="1">
-        <f t="array" aca="1" ref="H5" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_s6))</f>
+        <f t="array" aca="1" ref="H5" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s6))</f>
         <v>0</v>
       </c>
     </row>
@@ -1194,35 +1199,35 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" cm="1">
-        <f t="array" aca="1" ref="A7" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_s7))</f>
+        <f t="array" aca="1" ref="A7" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_s7))</f>
         <v>0</v>
       </c>
       <c r="B7" cm="1">
-        <f t="array" aca="1" ref="B7" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t8))</f>
+        <f t="array" aca="1" ref="B7" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t8))</f>
         <v>0</v>
       </c>
       <c r="C7" cm="1">
-        <f t="array" aca="1" ref="C7" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_t9))</f>
+        <f t="array" aca="1" ref="C7" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_t9))</f>
         <v>0</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" aca="1" ref="D7" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_gp))</f>
+        <f t="array" aca="1" ref="D7" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_gp))</f>
         <v>0</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" aca="1" ref="E7" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_sp))</f>
+        <f t="array" aca="1" ref="E7" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_sp))</f>
         <v>0</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" aca="1" ref="F7" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_fp))</f>
+        <f t="array" aca="1" ref="F7" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_fp))</f>
         <v>0</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" aca="1" ref="G7" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_ra))</f>
+        <f t="array" aca="1" ref="G7" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_ra))</f>
         <v>0</v>
       </c>
       <c r="H7" cm="1">
-        <f t="array" aca="1" ref="H7" ca="1">(IF(REGWRITE=ADDRESS(ROW(),COLUMN()),ALU,_pc))</f>
+        <f t="array" aca="1" ref="H7" ca="1">(IF(REGWRITEADDR=ADDRESS(ROW(),COLUMN()),ALU,_pc))</f>
         <v>0</v>
       </c>
     </row>
@@ -1264,9 +1269,9 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="E15" t="e" cm="1">
-        <f t="array" aca="1" ref="E15" ca="1">_xlfn.SWITCH(OP,8,ADI,12,ANDI,13,ORI,14,XORI,2,J,4,BEQ,5,BNE,34,LW,42,SW, 0, _xlfn.SWITCH(FNCT,32,ADD,34,SUB,24,MULT,26,DIV,36,AND,37,OR,38,XOR,0,SLL,2,SRL))</f>
-        <v>#NAME?</v>
+      <c r="E15" cm="1">
+        <f t="array" aca="1" ref="E15" ca="1">_xlfn.SWITCH(OP,8,ADDI,12,ANDI,13,ORI,14,XORI,2,J,4,BEQ,5,BNE,34,LW,42,SW, 0, _xlfn.SWITCH(FNCT,32,ADD,34,SUB,24,MULT,26,DIV,36,AND,37,OR,38,XOR,0,SLL,2,SRL))</f>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -1329,77 +1334,77 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D18" t="e">
+      <c r="D18">
         <f ca="1">RTVAL+RSVAL</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E18" t="e">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <f ca="1">RSVAL-RTVAL</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F18" t="e">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <f ca="1">RSVAL*RTVAL</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
       <c r="G18" t="e">
         <f ca="1">RSVAL/RTVAL</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18">
         <f ca="1">_xlfn.BITAND(RSVAL,RTVAL)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I18" t="e">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <f ca="1">_xlfn.BITOR(RSVAL,RTVAL)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J18" t="e">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <f ca="1">_xlfn.BITXOR(RSVAL,RTVAL)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K18" t="e">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <f ca="1">_xlfn.BITLSHIFT(RTVAL,SHMT)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L18" t="e">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <f ca="1">_xlfn.BITRSHIFT(RTVAL,SHMT)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M18" t="e">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <f ca="1">RSVAL+IMMD</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="N18" t="e">
+        <v>255</v>
+      </c>
+      <c r="N18">
         <f ca="1">_xlfn.BITAND(RSVAL,IMMD)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="O18" t="e">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <f ca="1">_xlfn.BITOR(RSVAL,IMMD)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="P18" t="e">
+        <v>255</v>
+      </c>
+      <c r="P18">
         <f ca="1">_xlfn.BITXOR(RSVAL,IMMD)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="Q18" t="e">
-        <f ca="1">_xlfn.BITOR(_xlfn.BITAND(pc+4,4026531840),_xlfn.BITLSHIFT(JBITS,2))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R18" t="e">
-        <f ca="1">IF(RSVAL=RTVAL,_xlfn.BITLSHIFT(IMMD,2)+pc+4,pc+4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S18" t="e">
-        <f ca="1">IF(RSVAL&lt;&gt;RTVAL,_xlfn.BITLSHIFT(IMMD,2)+pc+4,pc+4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="T18" t="e" cm="1">
+        <v>255</v>
+      </c>
+      <c r="Q18">
+        <f ca="1">_xlfn.BITOR(_xlfn.BITAND(_pc+4,4026531840),_xlfn.BITLSHIFT(JBITS,2))</f>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f ca="1">IF(RSVAL=RTVAL,_xlfn.BITLSHIFT(IMMD,2)+_pc+4,_pc+4)</f>
+        <v>1024</v>
+      </c>
+      <c r="S18">
+        <f ca="1">IF(RSVAL&lt;&gt;RTVAL,_xlfn.BITLSHIFT(IMMD,2)+_pc+4,_pc+4)</f>
+        <v>4</v>
+      </c>
+      <c r="T18" cm="1">
         <f t="array" aca="1" ref="T18" ca="1">INDIRECT(LWBASEADDR)+IMMD</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="U18" t="e">
+        <v>255</v>
+      </c>
+      <c r="U18">
         <f ca="1">RTVAL</f>
-        <v>#NAME?</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="17" x14ac:dyDescent="0.2">
@@ -1467,32 +1472,39 @@
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <f ca="1">IF(CLR = 1, 0, $A$20 + 1)</f>
-        <v>1525</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" t="e" cm="1">
+      <c r="D22" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDIRECT(RTADDR)</f>
-        <v>#NAME?</v>
+        <v>255</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22">
-        <f>IF(RFMT, RD, IF(IFMT,IF(_xlfn.BITRSHIFT(OP,3)=0,pc,RT),pc))</f>
-        <v>2</v>
+        <v>97</v>
+      </c>
+      <c r="G22" t="str">
+        <f>ADDRESS(_xlfn.BITRSHIFT(REGWRITE,3)*2 + 1, 1+_xlfn.BITAND(REGWRITE,7))</f>
+        <v>$A$3</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" t="e" cm="1">
+      <c r="D23" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">INDIRECT(RSADDR)</f>
-        <v>#NAME?</v>
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">IF(RFMT, RD, IF(IFMT,IF(_xlfn.BITRSHIFT(OP,3)=0,pc,RT),pc))</f>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -1500,7 +1512,7 @@
         <v>30</v>
       </c>
       <c r="D26" t="str">
-        <f>IF(RFMT,ADDRESS(_xlfn.BITRSHIFT(RD,3)*2 + 1, 1+_xlfn.BITAND(RD,7)),RDADDR)</f>
+        <f ca="1">IF(RFMT,ADDRESS(_xlfn.BITRSHIFT(RD,3)*2 + 1, 1+_xlfn.BITAND(RD,7)),RDADDR)</f>
         <v>$C$1</v>
       </c>
       <c r="E26" t="s">
@@ -1517,7 +1529,7 @@
       </c>
       <c r="D27" t="str">
         <f>ADDRESS(_xlfn.BITRSHIFT(RT,3)*2 + 1, 1+_xlfn.BITAND(RT,7))</f>
-        <v>$D$3</v>
+        <v>$A$3</v>
       </c>
       <c r="E27" t="s">
         <v>44</v>
@@ -1533,7 +1545,7 @@
       </c>
       <c r="D28" t="str">
         <f>ADDRESS(_xlfn.BITRSHIFT(RS,3)*2 + 1, 1+_xlfn.BITAND(RS,7))</f>
-        <v>$H$1</v>
+        <v>$A$1</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -1541,15 +1553,15 @@
         <v>25</v>
       </c>
       <c r="D31">
-        <f>IF(RFMT, _xlfn.BITAND(INSTR,127),$D$31)</f>
+        <f ca="1">IF(RFMT, _xlfn.BITAND(INSTR,127),$D$31)</f>
         <v>32</v>
       </c>
       <c r="E31" t="s">
         <v>24</v>
       </c>
       <c r="F31">
-        <f ca="1">IF(IFMT,_xlfn.BITAND(INSTR,65535),IMMD)</f>
-        <v>8</v>
+        <f>IF(IFMT,_xlfn.BITAND(INSTR,65535),IMMD)</f>
+        <v>255</v>
       </c>
       <c r="G31" t="s">
         <v>43</v>
@@ -1564,7 +1576,7 @@
         <v>26</v>
       </c>
       <c r="D32">
-        <f>IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,6),31),$D$32)</f>
+        <f ca="1">IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,6),31),$D$32)</f>
         <v>0</v>
       </c>
     </row>
@@ -1573,7 +1585,7 @@
         <v>27</v>
       </c>
       <c r="D33">
-        <f>IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,11),31),$D$33)</f>
+        <f ca="1">IF(RFMT,_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,11),31),$D$33)</f>
         <v>2</v>
       </c>
     </row>
@@ -1583,7 +1595,7 @@
       </c>
       <c r="D34">
         <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,16),31),$D$34)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -1592,16 +1604,16 @@
       </c>
       <c r="D35">
         <f>IF(OR(RFMT,IFMT),_xlfn.BITAND(_xlfn.BITRSHIFT(INSTR,21),31),$D$35)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>15405088</v>
+        <v>537395455</v>
       </c>
       <c r="B36">
         <f>_xlfn.BITRSHIFT($A$36,26)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1622,11 +1634,11 @@
       </c>
       <c r="C37" t="b">
         <f>(OP=0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="b">
         <f>AND(NOT(RFMT),NOT(JFMT))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
         <f>OR(OP=2,OP=3,OP=26)</f>

--- a/MIPSCel.xlsx
+++ b/MIPSCel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cooperterrill/Desktop/MIPCel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAA49F6-F1D3-F94A-A0F8-991F05C4C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CBE6F1-B924-1A4C-99D0-C2A70DE9409D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19300" xr2:uid="{95E4A03E-3FED-BF42-ACD2-5D2E65B33E92}"/>
   </bookViews>
@@ -972,7 +972,7 @@
   <dimension ref="A1:DX201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H13" activeCellId="1" sqref="H11 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
